--- a/AAII_Financials/Quarterly/SC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SC_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>SC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,231 @@
     <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2080200</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1941000</v>
+      </c>
+      <c r="F8" s="3">
         <v>2020500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>1979200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1964500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>1844000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>1843400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>1779800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1705000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1668900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1708300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1691100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1686700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1579200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1665200</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>881700</v>
+      </c>
+      <c r="E9" s="3">
+        <v>849600</v>
+      </c>
+      <c r="F9" s="3">
         <v>791400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>774500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>778400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>738900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>674700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>634300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>599700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>607100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>590300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>531600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>517300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>495200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>459900</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1198500</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1091400</v>
+      </c>
+      <c r="F10" s="3">
         <v>1229100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>1204700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>1186100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>1105100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>1168700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>1145500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>1105300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>1061800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>1118000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>1159500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>1169400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>1084000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>1205300</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +906,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +952,14 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +1002,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,8 +1052,14 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1102,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1123,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2086600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1718800</v>
+      </c>
+      <c r="F17" s="3">
         <v>1705800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1499200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1627200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1700400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1546600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1330600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1402300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1712200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1430600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1343000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1465300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1489000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1361200</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="E18" s="3">
+        <v>222200</v>
+      </c>
+      <c r="F18" s="3">
         <v>314700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>480000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>337300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>143600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>296800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>449200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>302700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-43300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>277800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>348100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>221400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>90200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>304000</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1243,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1222,52 +1289,64 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>572100</v>
+      </c>
+      <c r="E21" s="3">
+        <v>771000</v>
+      </c>
+      <c r="F21" s="3">
         <v>803500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>958200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>810200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>600700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>732400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>832100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>695500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>346600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>648100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>674300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>538600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>396900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>580500</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,96 +1389,114 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>222300</v>
+      </c>
+      <c r="F23" s="3">
         <v>314700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>480000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>337300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>143600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>296800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>449100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>302700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-43300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>277800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>348100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>221400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>90200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>304000</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E24" s="3">
+        <v>76200</v>
+      </c>
+      <c r="F24" s="3">
         <v>82200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>111800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>89800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>39300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>64900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>114100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>58100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>43700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>78400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>83400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>78000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>28900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>90500</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>146100</v>
+      </c>
+      <c r="F26" s="3">
         <v>232500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>368300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>247500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>104300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>231900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>335000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>244600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-87000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>199400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>264700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>143400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>61300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>213500</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>146100</v>
+      </c>
+      <c r="F27" s="3">
         <v>232500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>368300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>247500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>104300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>231900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>335000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>244600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-87000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>199400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>264700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>143400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>61300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>213500</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1600,14 +1721,14 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>652400</v>
+      <c r="K29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>652400</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1839,14 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1750,52 +1889,64 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>146100</v>
+      </c>
+      <c r="F33" s="3">
         <v>232500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>368300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>247500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>104300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>231900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>335000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>244600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>565300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>199400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>264700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>143400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>61300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>213500</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>146100</v>
+      </c>
+      <c r="F35" s="3">
         <v>232500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>368300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>247500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>104300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>231900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>335000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>244600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>565300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>199400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>264700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>143400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>61300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>213500</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2138,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>501600</v>
+      </c>
+      <c r="E41" s="3">
+        <v>81800</v>
+      </c>
+      <c r="F41" s="3">
         <v>38600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>99800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>76300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>148400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>81400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>319700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>618800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>527800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>397300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>341400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>420800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>160200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>75900</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,52 +2234,64 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="3">
+        <v>319500</v>
+      </c>
+      <c r="F43" s="3">
         <v>298300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>297400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>278700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>312600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>314400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>321600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>322700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>340600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>330600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>330700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>306700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>373300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>369500</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,31 +2334,37 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
-      </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
+        <v>53200</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -2187,8 +2384,14 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2231,140 +2434,164 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>31856500</v>
+      </c>
+      <c r="E47" s="3">
+        <v>28857100</v>
+      </c>
+      <c r="F47" s="3">
         <v>27512900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>27175900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>26655900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>26284000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>25872700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>25444500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>24298600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>24733500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>24582800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>25878900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>25424000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>25724100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>26406500</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>16093800</v>
+        <v>16861900</v>
       </c>
       <c r="E48" s="3">
-        <v>15372500</v>
+        <v>16579400</v>
       </c>
       <c r="F48" s="3">
-        <v>14450500</v>
+        <v>16154200</v>
       </c>
       <c r="G48" s="3">
+        <v>15435800</v>
+      </c>
+      <c r="H48" s="3">
+        <v>14515300</v>
+      </c>
+      <c r="I48" s="3">
         <v>14040100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>13246600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>11794100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>10678800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>10229900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>10003800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>9357200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>8995500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>8632100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>8529500</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>121900</v>
+      </c>
+      <c r="E49" s="3">
+        <v>116800</v>
+      </c>
+      <c r="F49" s="3">
         <v>110700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>108200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>115300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>109300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>106200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>105700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>105100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>103800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>105600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>106300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>106300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>106700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>107100</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2684,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1987000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>2079200</v>
+      </c>
+      <c r="F52" s="3">
         <v>2245500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>2272600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>2414700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>2102000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>2130100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>2125400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>2895600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>2553900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>2559200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>2756900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>2946700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>2757300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>2696500</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>47106900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>48933500</v>
+      </c>
+      <c r="F54" s="3">
         <v>47279000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>46416100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>45045900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>43959900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>42807000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>41173100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>40045200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>39402800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>38765600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>39507500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>39061900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>38539100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>38771600</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,52 +2878,60 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>458400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>499300</v>
+      </c>
+      <c r="F57" s="3">
         <v>392100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>431000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>399800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>423000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>453800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>470400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>430400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>429500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>336400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>335800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>414900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>379000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>354900</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2707,52 +2974,64 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>129500</v>
+        <v>75700</v>
       </c>
       <c r="E59" s="3">
-        <v>138100</v>
+        <v>167600</v>
       </c>
       <c r="F59" s="3">
-        <v>125200</v>
+        <v>189900</v>
       </c>
       <c r="G59" s="3">
+        <v>224100</v>
+      </c>
+      <c r="H59" s="3">
+        <v>213400</v>
+      </c>
+      <c r="I59" s="3">
         <v>112600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>114400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>198100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>141400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>120900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>105100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>93200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>128100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>84000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>97700</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2795,96 +3074,114 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>40216900</v>
+      </c>
+      <c r="E61" s="3">
+        <v>39194100</v>
+      </c>
+      <c r="F61" s="3">
         <v>37632600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>36765500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>35647200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>34883000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>33502900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>31929600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>31305200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>31160400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>30594100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>31648500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>31475300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>31323700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>31799900</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>940100</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1468200</v>
+      </c>
+      <c r="F62" s="3">
         <v>1403600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>1327300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>1230500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>1155900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>1138100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>1079600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>966400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>892400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>1515900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>1419800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>1342100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>1278100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>1227200</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>41960800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>41614900</v>
+      </c>
+      <c r="F66" s="3">
         <v>39933800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>39078800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>37887400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>36941500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>35665700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>34127400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>33319200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>32937100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>32880300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>33828700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>33642900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>33300500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>33654000</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>4499200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>6168700</v>
+      </c>
+      <c r="F72" s="3">
         <v>6097300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>5940900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>5643000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>5465700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>5433300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>5285800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>4969200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>4736300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>4181800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>3982400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>3717700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>3549200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>3487900</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5146100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>7318600</v>
+      </c>
+      <c r="F76" s="3">
         <v>7345200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>7337300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>7158500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>7018400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>7141200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>7045700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>6726000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>6465700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>5885200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>5678700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>5419000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>5238600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>5117700</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>146100</v>
+      </c>
+      <c r="F81" s="3">
         <v>232500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>368300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>247500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>104300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>231900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>335000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>244600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>565300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>199400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>264700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>143400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>61300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>213500</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +4023,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>578500</v>
+      </c>
+      <c r="E83" s="3">
+        <v>548700</v>
+      </c>
+      <c r="F83" s="3">
         <v>488800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>478200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>472900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>457100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>435500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>383000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>392800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>389900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>370400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>326200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>317200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>306700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>276400</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4319,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1395100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>1317800</v>
+      </c>
+      <c r="F89" s="3">
         <v>1353100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>1386100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>1476300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>1159200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>1573400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>1627900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>1884400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>231000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>1494600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>751800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>1464000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>1797000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>1360100</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4393,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="F91" s="3">
         <v>-1700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-1200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-5600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-3300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-2800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-3200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-1000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-1400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-3500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-4100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-3231400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-975900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-1302500</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4539,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1542400</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-2825300</v>
+      </c>
+      <c r="F94" s="3">
         <v>-2083800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-2456400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-1907000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-2294500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-3347500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-3245700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-1528100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-517600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-337800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-1187600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-1165300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-1241100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-1308500</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,41 +4613,43 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-74600</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-74700</v>
+      </c>
+      <c r="F96" s="3">
         <v>-76100</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-70400</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-70300</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-71900</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-72300</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-18100</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-18000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-10800</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
@@ -4192,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4809,64 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>474800</v>
+      </c>
+      <c r="E100" s="3">
+        <v>1384500</v>
+      </c>
+      <c r="F100" s="3">
         <v>642500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>951800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>671100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>1174200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>1441400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>598600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>125500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>551500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-1070600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>169900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>162500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-471500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-53800</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +4909,60 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>327500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-123000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-88300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-118500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>240400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>38900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-233500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-1069300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>432700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>130500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>55900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-268900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>450100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>84300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-2200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>SC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1930400</v>
+      </c>
+      <c r="E8" s="3">
         <v>2080200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1941000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2020500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1979200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1964500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1844000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1843400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1779800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1705000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1668900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1708300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1691100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1686700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1579200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1665200</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>919800</v>
+      </c>
+      <c r="E9" s="3">
         <v>881700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>849600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>791400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>774500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>778400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>738900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>674700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>634300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>599700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>607100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>590300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>531600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>517300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>495200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>459900</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1010600</v>
+      </c>
+      <c r="E10" s="3">
         <v>1198500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1091400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1229100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1204700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1186100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1105100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1168700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1145500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1105300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1061800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1118000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1159500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1169400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1084000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1205300</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2059900</v>
+      </c>
+      <c r="E17" s="3">
         <v>2086600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1718800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1705800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1499200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1627200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1700400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1546600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1330600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1402300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1712200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1430600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1343000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1465300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1489000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1361200</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-129500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-6400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>222200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>314700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>480000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>337300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>143600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>296800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>449200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>302700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-43300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>277800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>348100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>221400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>90200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>304000</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1295,58 +1329,64 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>530200</v>
+      </c>
+      <c r="E21" s="3">
         <v>572100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>771000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>803500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>958200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>810200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>600700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>732400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>832100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>695500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>346600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>648100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>674300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>538600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>396900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>580500</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1395,108 +1435,117 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-129500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-6400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>222300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>314700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>480000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>337300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>143600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>296800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>449100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>302700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-43300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>277800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>348100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>221400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>90200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>304000</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-32900</v>
+      </c>
+      <c r="E24" s="3">
         <v>-2500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>76200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>82200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>111800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>89800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>39300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>64900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>114100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>58100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>43700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>78400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>83400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>78000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>28900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>90500</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-96700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-4000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>146100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>232500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>368300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>247500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>104300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>231900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>335000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>244600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-87000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>199400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>264700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>143400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>61300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>213500</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-96700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-4000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>146100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>232500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>368300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>247500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>104300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>231900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>335000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>244600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-87000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>199400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>264700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>143400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>61300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>213500</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1727,11 +1788,11 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
         <v>652400</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1895,58 +1965,64 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-96700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-4000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>146100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>232500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>368300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>247500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>104300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>231900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>335000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>244600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>565300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>199400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>264700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>143400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>61300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>213500</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-96700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-4000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>146100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>232500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>368300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>247500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>104300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>231900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>335000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>244600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>565300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>199400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>264700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>143400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>61300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>213500</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,58 +2226,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>175900</v>
+      </c>
+      <c r="E41" s="3">
         <v>501600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>81800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>38600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>99800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>76300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>148400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>81400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>319700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>618800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>527800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>397300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>341400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>420800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>160200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>75900</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,58 +2330,64 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>8</v>
+      <c r="D43" s="3">
+        <v>537100</v>
       </c>
       <c r="E43" s="3">
+        <v>363000</v>
+      </c>
+      <c r="F43" s="3">
         <v>319500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>298300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>297400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>278700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>312600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>314400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>321600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>322700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>340600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>330600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>330700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>306700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>373300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>369500</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,16 +2436,19 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>49100</v>
+      </c>
+      <c r="E45" s="3">
         <v>53200</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>8</v>
@@ -2366,8 +2465,8 @@
       <c r="J45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
+      <c r="K45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
@@ -2390,8 +2489,11 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2440,158 +2542,170 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>31856500</v>
+        <v>27310000</v>
       </c>
       <c r="E47" s="3">
+        <v>26396400</v>
+      </c>
+      <c r="F47" s="3">
         <v>28857100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>27512900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>27175900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>26655900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>26284000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>25872700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>25444500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>24298600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>24733500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>24582800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>25878900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>25424000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>25724100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>26406500</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>16353600</v>
+      </c>
+      <c r="E48" s="3">
         <v>16861900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>16579400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>16154200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>15435800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>14515300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>14040100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>13246600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>11794100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>10678800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>10229900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>10003800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>9357200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>8995500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>8632100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>8529500</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>127200</v>
+      </c>
+      <c r="E49" s="3">
         <v>121900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>116800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>110700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>108200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>115300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>109300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>106200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>105700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>105100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>103800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>105600</v>
-      </c>
-      <c r="O49" s="3">
-        <v>106300</v>
       </c>
       <c r="P49" s="3">
         <v>106300</v>
       </c>
       <c r="Q49" s="3">
+        <v>106300</v>
+      </c>
+      <c r="R49" s="3">
         <v>106700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>107100</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2057300</v>
+      </c>
+      <c r="E52" s="3">
         <v>1987000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2079200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2245500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2272600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2414700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2102000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2130100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2125400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2895600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2553900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2559200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2756900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2946700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2757300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2696500</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>47268700</v>
+      </c>
+      <c r="E54" s="3">
         <v>47106900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>48933500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>47279000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>46416100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>45045900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>43959900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>42807000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>41173100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>40045200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>39402800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>38765600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>39507500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>39061900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>38539100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>38771600</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,58 +3010,62 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>508300</v>
+      </c>
+      <c r="E57" s="3">
         <v>458400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>499300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>392100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>431000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>399800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>423000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>453800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>470400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>430400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>429500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>336400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>335800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>414900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>379000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>354900</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2980,58 +3114,64 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>72200</v>
+      </c>
+      <c r="E59" s="3">
         <v>75700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>167600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>189900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>224100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>213400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>112600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>114400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>198100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>141400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>120900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>105100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>93200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>128100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>84000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>97700</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3080,108 +3220,117 @@
       <c r="R60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>40636800</v>
+      </c>
+      <c r="E61" s="3">
         <v>40216900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>39194100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>37632600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>36765500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>35647200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>34883000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>33502900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>31929600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>31305200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>31160400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>30594100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>31648500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>31475300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>31323700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>31799900</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>910400</v>
+      </c>
+      <c r="E62" s="3">
         <v>940100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1468200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1403600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1327300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1230500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1155900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1138100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1079600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>966400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>892400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1515900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1419800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1342100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1278100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1227200</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>42373200</v>
+      </c>
+      <c r="E66" s="3">
         <v>41960800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>41614900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>39933800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>39078800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>37887400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>36941500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>35665700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>34127400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>33319200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>32937100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>32880300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>33828700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>33642900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>33300500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>33654000</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>4331500</v>
+      </c>
+      <c r="E72" s="3">
         <v>4499200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>6168700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>6097300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>5940900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>5643000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>5465700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>5433300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>5285800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4969200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>4736300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>4181800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>3982400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>3717700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3549200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>3487900</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4895500</v>
+      </c>
+      <c r="E76" s="3">
         <v>5146100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>7318600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>7345200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>7337300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>7158500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>7018400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>7141200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7045700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>6726000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>6465700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>5885200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>5678700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>5419000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>5238600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>5117700</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-96700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-4000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>146100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>232500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>368300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>247500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>104300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>231900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>335000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>244600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>565300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>199400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>264700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>143400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>61300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>213500</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>659700</v>
+      </c>
+      <c r="E83" s="3">
         <v>578500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>548700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>488800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>478200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>472900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>457100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>435500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>383000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>392800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>389900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>370400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>326200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>317200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>306700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>276400</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-203000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1395100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1317800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1353100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1386100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1476300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1159200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1573400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1627900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1884400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>231000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1494600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>751800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1464000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1797000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1360100</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-7500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-7900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-5600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-4100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3231400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-975900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1302500</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-310000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1542400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2825300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2083800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2456400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1907000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2294500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3347500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3245700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1528100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-517600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-337800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1187600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1165300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1241100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1308500</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,44 +4848,45 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-70600</v>
+      </c>
+      <c r="E96" s="3">
         <v>-74600</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-74700</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-76100</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-70400</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-70300</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-71900</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-72300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-18100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-18000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-10800</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,58 +5058,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>257600</v>
+      </c>
+      <c r="E100" s="3">
         <v>474800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1384500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>642500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>951800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>671100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1174200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1441400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>598600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>125500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>551500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1070600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>169900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>162500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-471500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-53800</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,54 +5164,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-255300</v>
+      </c>
+      <c r="E102" s="3">
         <v>327500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-123000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-88300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-118500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>240400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>38900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-233500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1069300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>432700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>130500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>55900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-268900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>450100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>84300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-2200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>SC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2056500</v>
+      </c>
+      <c r="E8" s="3">
         <v>1930400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2080200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1941000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2020500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1979200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1964500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1844000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1843400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1779800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1705000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1668900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1708300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1691100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1686700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1579200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1665200</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>759300</v>
+      </c>
+      <c r="E9" s="3">
         <v>919800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>881700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>849600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>791400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>774500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>778400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>738900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>674700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>634300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>599700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>607100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>590300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>531600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>517300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>495200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>459900</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1297200</v>
+      </c>
+      <c r="E10" s="3">
         <v>1010600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1198500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1091400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1229100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1204700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1186100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1105100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1168700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1145500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1105300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1061800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1118000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1159500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1169400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1084000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1205300</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1393900</v>
+      </c>
+      <c r="E17" s="3">
         <v>2059900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2086600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1718800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1705800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1499200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1627200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1700400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1546600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1330600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1402300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1712200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1430600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1343000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1465300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1489000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1361200</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>662600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-129500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-6400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>222200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>314700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>480000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>337300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>143600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>296800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>449200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>302700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-43300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>277800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>348100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>221400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>90200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>304000</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1332,61 +1366,67 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1150700</v>
+      </c>
+      <c r="E21" s="3">
         <v>530200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>572100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>771000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>803500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>958200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>810200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>600700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>732400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>832100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>695500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>346600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>648100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>674300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>538600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>396900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>580500</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,114 +1478,123 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>662600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-129500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-6400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>222300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>314700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>480000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>337300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>143600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>296800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>449100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>302700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-43300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>277800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>348100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>221400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>90200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>304000</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>172500</v>
+      </c>
+      <c r="E24" s="3">
         <v>-32900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-2500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>76200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>82200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>111800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>89800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>39300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>64900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>114100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>58100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>43700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>78400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>83400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>78000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>28900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>90500</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>490100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-96700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-4000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>146100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>232500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>368300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>247500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>104300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>231900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>335000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>244600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-87000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>199400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>264700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>143400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>61300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>213500</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>490100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-96700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-4000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>146100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>232500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>368300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>247500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>104300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>231900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>335000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>244600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-87000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>199400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>264700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>143400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>61300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>213500</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1791,11 +1852,11 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
         <v>652400</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1968,61 +2038,67 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>490100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-96700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-4000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>146100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>232500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>368300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>247500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>104300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>231900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>335000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>244600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>565300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>199400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>264700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>143400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>61300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>213500</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>490100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-96700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-4000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>146100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>232500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>368300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>247500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>104300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>231900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>335000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>244600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>565300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>199400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>264700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>143400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>61300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>213500</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>105600</v>
+      </c>
+      <c r="E41" s="3">
         <v>175900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>501600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>81800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>38600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>99800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>76300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>148400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>81400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>319700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>618800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>527800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>397300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>341400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>420800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>160200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>75900</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,61 +2423,67 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>467000</v>
+      </c>
+      <c r="E43" s="3">
         <v>537100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>363000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>319500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>298300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>297400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>278700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>312600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>314400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>321600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>322700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>340600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>330600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>330700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>306700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>373300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>369500</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,19 +2535,22 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>44500</v>
+      </c>
+      <c r="E45" s="3">
         <v>49100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>53200</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>8</v>
@@ -2468,8 +2567,8 @@
       <c r="K45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
+      <c r="L45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
@@ -2492,8 +2591,11 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2545,167 +2647,179 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>28352600</v>
+      </c>
+      <c r="E47" s="3">
         <v>27310000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>26396400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>28857100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>27512900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>27175900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>26655900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>26284000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>25872700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>25444500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>24298600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>24733500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>24582800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>25878900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>25424000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>25724100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>26406500</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>16304900</v>
+      </c>
+      <c r="E48" s="3">
         <v>16353600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>16861900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>16579400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>16154200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>15435800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>14515300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>14040100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>13246600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>11794100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>10678800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>10229900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>10003800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>9357200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>8995500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>8632100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>8529500</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>136400</v>
+      </c>
+      <c r="E49" s="3">
         <v>127200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>121900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>116800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>110700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>108200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>115300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>109300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>106200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>105700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>105100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>103800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>105600</v>
-      </c>
-      <c r="P49" s="3">
-        <v>106300</v>
       </c>
       <c r="Q49" s="3">
         <v>106300</v>
       </c>
       <c r="R49" s="3">
+        <v>106300</v>
+      </c>
+      <c r="S49" s="3">
         <v>106700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>107100</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2267200</v>
+      </c>
+      <c r="E52" s="3">
         <v>2057300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1987000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2079200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2245500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2272600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2414700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2102000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2130100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2125400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2895600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2553900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2559200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2756900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2946700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2757300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2696500</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>48448900</v>
+      </c>
+      <c r="E54" s="3">
         <v>47268700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>47106900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>48933500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>47279000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>46416100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>45045900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>43959900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>42807000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>41173100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>40045200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>39402800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>38765600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>39507500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>39061900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>38539100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>38771600</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,61 +3141,65 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>524800</v>
+      </c>
+      <c r="E57" s="3">
         <v>508300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>458400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>499300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>392100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>431000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>399800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>423000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>453800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>470400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>430400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>429500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>336400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>335800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>414900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>379000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>354900</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3117,61 +3251,67 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>68500</v>
+      </c>
+      <c r="E59" s="3">
         <v>72200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>75700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>167600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>189900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>224100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>213400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>112600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>114400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>198100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>141400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>120900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>105100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>93200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>128100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>84000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>97700</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3223,114 +3363,123 @@
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>41369300</v>
+      </c>
+      <c r="E61" s="3">
         <v>40636800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>40216900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>39194100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>37632600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>36765500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>35647200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>34883000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>33502900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>31929600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>31305200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>31160400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>30594100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>31648500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>31475300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>31323700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>31799900</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1095200</v>
+      </c>
+      <c r="E62" s="3">
         <v>910400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>940100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1468200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1403600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1327300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1230500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1155900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1138100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1079600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>966400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>892400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1515900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1419800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1342100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1278100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1227200</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>43354100</v>
+      </c>
+      <c r="E66" s="3">
         <v>42373200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>41960800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>41614900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>39933800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>39078800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>37887400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>36941500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>35665700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>34127400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>33319200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>32937100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>32880300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>33828700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>33642900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>33300500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>33654000</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>4754200</v>
+      </c>
+      <c r="E72" s="3">
         <v>4331500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>4499200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>6168700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>6097300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>5940900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>5643000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>5465700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>5433300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>5285800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>4969200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>4736300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>4181800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>3982400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3717700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>3549200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>3487900</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5094800</v>
+      </c>
+      <c r="E76" s="3">
         <v>4895500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>5146100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>7318600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>7345200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>7337300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>7158500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>7018400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7141200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7045700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>6726000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>6465700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>5885200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>5678700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>5419000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>5238600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>5117700</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>490100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-96700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-4000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>146100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>232500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>368300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>247500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>104300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>231900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>335000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>244600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>565300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>199400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>264700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>143400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>61300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>213500</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>488100</v>
+      </c>
+      <c r="E83" s="3">
         <v>659700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>578500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>548700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>488800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>478200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>472900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>457100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>435500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>383000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>392800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>389900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>370400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>326200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>317200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>306700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>276400</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2059800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-203000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1395100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1317800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1353100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1386100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1476300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1159200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1573400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1627900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1884400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>231000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1494600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>751800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1464000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1797000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1360100</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-7400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-7500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-7900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-5600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3231400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-975900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1302500</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2353500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-310000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1542400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2825300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2083800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2456400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1907000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2294500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3347500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3245700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1528100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-517600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-337800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1187600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1165300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1241100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1308500</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,47 +5082,48 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-67400</v>
+      </c>
+      <c r="E96" s="3">
         <v>-70600</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-74600</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-74700</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-76100</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-70400</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-70300</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-71900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-72300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-18100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-18000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-10800</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
         <v>0</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,61 +5304,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>433100</v>
+      </c>
+      <c r="E100" s="3">
         <v>257600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>474800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1384500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>642500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>951800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>671100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1174200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1441400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>598600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>125500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>551500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1070600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>169900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>162500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-471500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-53800</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,57 +5416,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>139500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-255300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>327500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-123000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-88300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-118500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>240400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>38900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-233500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1069300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>432700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>130500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>55900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-268900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>450100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>84300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-2200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
   <si>
     <t>SC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,269 @@
     <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2041400</v>
+      </c>
+      <c r="E8" s="3">
         <v>2056500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1930400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2080200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1941000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2020500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1979200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1964500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1844000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1843400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1779800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1705000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1668900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1708300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1691100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1686700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1579200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1665200</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>721200</v>
+      </c>
+      <c r="E9" s="3">
         <v>759300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>919800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>881700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>849600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>791400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>774500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>778400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>738900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>674700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>634300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>599700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>607100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>590300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>531600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>517300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>495200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>459900</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1320200</v>
+      </c>
+      <c r="E10" s="3">
         <v>1297200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1010600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1198500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1091400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1229100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1204700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1186100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1105100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1168700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1145500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1105300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1061800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1118000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1159500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1169400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1084000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1205300</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1064,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1104,8 +1123,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1358200</v>
+      </c>
+      <c r="E17" s="3">
         <v>1393900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2059900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2086600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1718800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1705800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1499200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1627200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1700400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1546600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1330600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1402300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1712200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1430600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1343000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1465300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1489000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1361200</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>683200</v>
+      </c>
+      <c r="E18" s="3">
         <v>662600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-129500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-6400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>222200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>314700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>480000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>337300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>143600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>296800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>449200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>302700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-43300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>277800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>348100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>221400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>90200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>304000</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1345,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1369,64 +1402,70 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1165900</v>
+      </c>
+      <c r="E21" s="3">
         <v>1150700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>530200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>572100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>771000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>803500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>958200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>810200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>600700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>732400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>832100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>695500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>346600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>648100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>674300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>538600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>396900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>580500</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,120 +1520,129 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>683200</v>
+      </c>
+      <c r="E23" s="3">
         <v>662600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-129500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-6400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>222300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>314700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>480000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>337300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>143600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>296800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>449100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>302700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-43300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>277800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>348100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>221400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>90200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>304000</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>161800</v>
+      </c>
+      <c r="E24" s="3">
         <v>172500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-32900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-2500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>76200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>82200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>111800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>89800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>39300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>64900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>114100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>58100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>43700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>78400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>83400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>78000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>28900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>90500</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>521500</v>
+      </c>
+      <c r="E26" s="3">
         <v>490100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-96700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-4000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>146100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>232500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>368300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>247500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>104300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>231900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>335000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>244600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-87000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>199400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>264700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>143400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>61300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>213500</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>521500</v>
+      </c>
+      <c r="E27" s="3">
         <v>490100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-96700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-4000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>146100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>232500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>368300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>247500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>104300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>231900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>335000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>244600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-87000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>199400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>264700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>143400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>61300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>213500</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1855,11 +1915,11 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3">
         <v>652400</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2051,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2041,64 +2110,70 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>521500</v>
+      </c>
+      <c r="E33" s="3">
         <v>490100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-96700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-4000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>146100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>232500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>368300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>247500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>104300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>231900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>335000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>244600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>565300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>199400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>264700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>143400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>61300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>213500</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>521500</v>
+      </c>
+      <c r="E35" s="3">
         <v>490100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-96700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-4000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>146100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>232500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>368300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>247500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>104300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>231900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>335000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>244600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>565300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>199400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>264700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>143400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>61300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>213500</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2399,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>109100</v>
+      </c>
+      <c r="E41" s="3">
         <v>105600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>175900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>501600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>81800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>38600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>99800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>76300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>148400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>81400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>319700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>618800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>527800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>397300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>341400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>420800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>160200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>75900</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,64 +2515,70 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>473800</v>
+      </c>
+      <c r="E43" s="3">
         <v>467000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>537100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>363000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>319500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>298300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>297400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>278700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>312600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>314400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>321600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>322700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>340600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>330600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>330700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>306700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>373300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>369500</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,22 +2633,25 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>45700</v>
+      </c>
+      <c r="E45" s="3">
         <v>44500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>49100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>53200</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>8</v>
@@ -2570,8 +2668,8 @@
       <c r="L45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
+      <c r="M45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
@@ -2594,8 +2692,11 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2650,176 +2751,188 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>28705800</v>
+      </c>
+      <c r="E47" s="3">
         <v>28352600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>27310000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>26396400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>28857100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>27512900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>27175900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>26655900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>26284000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>25872700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>25444500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>24298600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>24733500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>24582800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>25878900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>25424000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>25724100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>26406500</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>16499600</v>
+      </c>
+      <c r="E48" s="3">
         <v>16304900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>16353600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>16861900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>16579400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>16154200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>15435800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>14515300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>14040100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>13246600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>11794100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>10678800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>10229900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>10003800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>9357200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>8995500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>8632100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>8529500</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>144200</v>
+      </c>
+      <c r="E49" s="3">
         <v>136400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>127200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>121900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>116800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>110700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>108200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>115300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>109300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>106200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>105700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>105100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>103800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>105600</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>106300</v>
       </c>
       <c r="R49" s="3">
         <v>106300</v>
       </c>
       <c r="S49" s="3">
+        <v>106300</v>
+      </c>
+      <c r="T49" s="3">
         <v>106700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>107100</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3046,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2221100</v>
+      </c>
+      <c r="E52" s="3">
         <v>2267200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2057300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1987000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2079200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2245500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2272600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2414700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2102000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2130100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2125400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2895600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2553900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2559200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2756900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2946700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2757300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2696500</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>48887500</v>
+      </c>
+      <c r="E54" s="3">
         <v>48448900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>47268700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>47106900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>48933500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>47279000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>46416100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>45045900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>43959900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>42807000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>41173100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>40045200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>39402800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>38765600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>39507500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>39061900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>38539100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>38771600</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,64 +3271,68 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>531400</v>
+      </c>
+      <c r="E57" s="3">
         <v>524800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>508300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>458400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>499300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>392100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>431000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>399800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>423000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>453800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>470400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>430400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>429500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>336400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>335800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>414900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>379000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>354900</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3254,64 +3387,70 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>64900</v>
+      </c>
+      <c r="E59" s="3">
         <v>68500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>72200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>75700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>167600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>189900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>224100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>213400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>112600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>114400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>198100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>141400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>120900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>105100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>93200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>128100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>84000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>97700</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3366,120 +3505,129 @@
       <c r="T60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>41138700</v>
+      </c>
+      <c r="E61" s="3">
         <v>41369300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>40636800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>40216900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>39194100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>37632600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>36765500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>35647200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>34883000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>33502900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>31929600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>31305200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>31160400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>30594100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>31648500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>31475300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>31323700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>31799900</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1263800</v>
+      </c>
+      <c r="E62" s="3">
         <v>1095200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>910400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>940100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1468200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1403600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1327300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1230500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1155900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1138100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1079600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>966400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>892400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1515900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1419800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1342100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1278100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1227200</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>43265500</v>
+      </c>
+      <c r="E66" s="3">
         <v>43354100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>42373200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>41960800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>41614900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>39933800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>39078800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>37887400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>36941500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>35665700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>34127400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>33319200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>32937100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>32880300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>33828700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>33642900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>33300500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>33654000</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>5275700</v>
+      </c>
+      <c r="E72" s="3">
         <v>4754200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>4331500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>4499200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>6168700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>6097300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>5940900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>5643000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>5465700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>5433300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>5285800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>4969200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>4736300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>4181800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3982400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>3717700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>3549200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>3487900</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5622000</v>
+      </c>
+      <c r="E76" s="3">
         <v>5094800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4895500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>5146100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>7318600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>7345200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>7337300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>7158500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7018400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7141200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7045700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>6726000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>6465700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>5885200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>5678700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>5419000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>5238600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>5117700</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>521500</v>
+      </c>
+      <c r="E81" s="3">
         <v>490100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-96700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-4000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>146100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>232500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>368300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>247500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>104300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>231900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>335000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>244600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>565300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>199400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>264700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>143400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>61300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>213500</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,64 +4620,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>482600</v>
+      </c>
+      <c r="E83" s="3">
         <v>488100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>659700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>578500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>548700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>488800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>478200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>472900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>457100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>435500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>383000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>392800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>389900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>370400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>326200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>317200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>306700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>276400</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>760500</v>
+      </c>
+      <c r="E89" s="3">
         <v>2059800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-203000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1395100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1317800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1353100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1386100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1476300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1159200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1573400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1627900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1884400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>231000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1494600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>751800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1464000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1797000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1360100</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5056,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-7400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-7500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-7900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-5600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-4100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-3231400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-975900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1302500</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5231,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-561800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2353500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-310000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1542400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2825300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2083800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2456400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1907000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2294500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3347500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3245700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1528100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-517600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-337800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1187600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1165300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1241100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1308500</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,50 +5315,51 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
         <v>-67400</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-70600</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-74600</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-74700</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-76100</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-70400</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-70300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-71900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-72300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-18100</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-18000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-10800</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
         <v>0</v>
       </c>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,64 +5549,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-241400</v>
+      </c>
+      <c r="E100" s="3">
         <v>433100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>257600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>474800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1384500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>642500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>951800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>671100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1174200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1441400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>598600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>125500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>551500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1070600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>169900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>162500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-471500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-53800</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,60 +5667,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-42600</v>
+      </c>
+      <c r="E102" s="3">
         <v>139500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-255300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>327500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-123000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-88300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-118500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>240400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>38900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-233500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1069300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>432700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>130500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>55900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-268900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>450100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>84300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-2200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>SC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,282 @@
     <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2151500</v>
+      </c>
+      <c r="E8" s="3">
         <v>2041400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2056500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1930400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2080200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1941000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2020500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1979200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1964500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1844000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1843400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1779800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1705000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1668900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1708300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1691100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1686700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1579200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1665200</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>677300</v>
+      </c>
+      <c r="E9" s="3">
         <v>721200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>759300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>919800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>881700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>849600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>791400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>774500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>778400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>738900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>674700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>634300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>599700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>607100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>590300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>531600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>517300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>495200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>459900</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1474200</v>
+      </c>
+      <c r="E10" s="3">
         <v>1320200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1297200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1010600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1198500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1091400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1229100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1204700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1186100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1105100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1168700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1145500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1105300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1061800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1118000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1159500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1169400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1084000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1205300</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,8 +1084,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1126,8 +1146,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1175400</v>
+      </c>
+      <c r="E17" s="3">
         <v>1358200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1393900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2059900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2086600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1718800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1705800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1499200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1627200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1700400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1546600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1330600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1402300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1712200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1430600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1343000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1465300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1489000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1361200</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>976100</v>
+      </c>
+      <c r="E18" s="3">
         <v>683200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>662600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-129500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-6400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>222200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>314700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>480000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>337300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>143600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>296800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>449200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>302700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-43300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>277800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>348100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>221400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>90200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>304000</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,8 +1379,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1405,67 +1439,73 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1453500</v>
+      </c>
+      <c r="E21" s="3">
         <v>1165900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1150700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>530200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>572100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>771000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>803500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>958200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>810200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>600700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>732400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>832100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>695500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>346600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>648100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>674300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>538600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>396900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>580500</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1523,126 +1563,135 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>976100</v>
+      </c>
+      <c r="E23" s="3">
         <v>683200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>662600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-129500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-6400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>222300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>314700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>480000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>337300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>143600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>296800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>449100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>302700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-43300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>277800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>348100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>221400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>90200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>304000</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>234500</v>
+      </c>
+      <c r="E24" s="3">
         <v>161800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>172500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-32900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-2500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>76200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>82200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>111800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>89800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>39300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>64900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>114100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>58100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>43700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>78400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>83400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>78000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>28900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>90500</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>741700</v>
+      </c>
+      <c r="E26" s="3">
         <v>521500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>490100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-96700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-4000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>146100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>232500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>368300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>247500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>104300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>231900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>335000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>244600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-87000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>199400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>264700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>143400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>61300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>213500</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>741700</v>
+      </c>
+      <c r="E27" s="3">
         <v>521500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>490100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-96700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-4000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>146100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>232500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>368300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>247500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>104300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>231900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>335000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>244600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-87000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>199400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>264700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>143400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>61300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>213500</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,31 +1935,34 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1918,11 +1979,11 @@
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3">
         <v>652400</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,8 +2121,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2113,67 +2183,73 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>741700</v>
+      </c>
+      <c r="E33" s="3">
         <v>521500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>490100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-96700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-4000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>146100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>232500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>368300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>247500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>104300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>231900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>335000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>244600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>565300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>199400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>264700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>143400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>61300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>213500</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>741700</v>
+      </c>
+      <c r="E35" s="3">
         <v>521500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>490100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-96700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-4000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>146100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>232500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>368300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>247500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>104300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>231900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>335000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>244600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>565300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>199400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>264700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>143400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>61300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>213500</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,67 +2486,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>416000</v>
+      </c>
+      <c r="E41" s="3">
         <v>109100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>105600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>175900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>501600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>81800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>38600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>99800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>76300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>148400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>81400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>319700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>618800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>527800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>397300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>341400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>420800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>160200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>75900</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,67 +2608,73 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>389500</v>
+      </c>
+      <c r="E43" s="3">
         <v>473800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>467000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>537100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>363000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>319500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>298300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>297400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>278700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>312600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>314400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>321600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>322700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>340600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>330600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>330700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>306700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>373300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>369500</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2636,25 +2732,28 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>54300</v>
+      </c>
+      <c r="E45" s="3">
         <v>45700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>44500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>49100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>53200</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>8</v>
@@ -2671,8 +2770,8 @@
       <c r="M45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
+      <c r="N45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
@@ -2695,8 +2794,11 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2754,185 +2856,197 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>26205400</v>
+      </c>
+      <c r="E47" s="3">
         <v>28705800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>28352600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>27310000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>26396400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>28857100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>27512900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>27175900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>26655900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>26284000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>25872700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>25444500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>24298600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>24733500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>24582800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>25878900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>25424000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>25724100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>26406500</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>16586800</v>
+      </c>
+      <c r="E48" s="3">
         <v>16499600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>16304900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>16353600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>16861900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>16579400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>16154200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>15435800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>14515300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>14040100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>13246600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>11794100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>10678800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>10229900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>10003800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>9357200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>8995500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>8632100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>8529500</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>147900</v>
+      </c>
+      <c r="E49" s="3">
         <v>144200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>136400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>127200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>121900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>116800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>110700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>108200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>115300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>109300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>106200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>105700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>105100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>103800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>105600</v>
-      </c>
-      <c r="R49" s="3">
-        <v>106300</v>
       </c>
       <c r="S49" s="3">
         <v>106300</v>
       </c>
       <c r="T49" s="3">
+        <v>106300</v>
+      </c>
+      <c r="U49" s="3">
         <v>106700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>107100</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,67 +3166,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2623600</v>
+      </c>
+      <c r="E52" s="3">
         <v>2221100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2267200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2057300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1987000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2079200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2245500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2272600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2414700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2102000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2130100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2125400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2895600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2553900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2559200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2756900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2946700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2757300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>2696500</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>47234000</v>
+      </c>
+      <c r="E54" s="3">
         <v>48887500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>48448900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>47268700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>47106900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>48933500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>47279000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>46416100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>45045900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>43959900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>42807000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>41173100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>40045200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>39402800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>38765600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>39507500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>39061900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>38539100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>38771600</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,67 +3402,71 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>567500</v>
+      </c>
+      <c r="E57" s="3">
         <v>531400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>524800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>508300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>458400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>499300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>392100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>431000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>399800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>423000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>453800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>470400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>430400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>429500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>336400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>335800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>414900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>379000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>354900</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3390,67 +3524,73 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>68200</v>
+      </c>
+      <c r="E59" s="3">
         <v>64900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>68500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>72200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>75700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>167600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>189900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>224100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>213400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>112600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>114400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>198100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>141400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>120900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>105100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>93200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>128100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>84000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>97700</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3508,126 +3648,135 @@
       <c r="U60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>38541600</v>
+      </c>
+      <c r="E61" s="3">
         <v>41138700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>41369300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>40636800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>40216900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>39194100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>37632600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>36765500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>35647200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>34883000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>33502900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>31929600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>31305200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>31160400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>30594100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>31648500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>31475300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>31323700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>31799900</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1497800</v>
+      </c>
+      <c r="E62" s="3">
         <v>1263800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1095200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>910400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>940100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1468200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1403600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1327300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1230500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1155900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1138100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1079600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>966400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>892400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1515900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1419800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1342100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1278100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1227200</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>41002100</v>
+      </c>
+      <c r="E66" s="3">
         <v>43265500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>43354100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>42373200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>41960800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>41614900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>39933800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>39078800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>37887400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>36941500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>35665700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>34127400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>33319200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>32937100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>32880300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>33828700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>33642900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>33300500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>33654000</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>5882700</v>
+      </c>
+      <c r="E72" s="3">
         <v>5275700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>4754200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>4331500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>4499200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>6168700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>6097300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>5940900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>5643000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>5465700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>5433300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>5285800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>4969200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>4736300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>4181800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>3982400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>3717700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>3549200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>3487900</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6231900</v>
+      </c>
+      <c r="E76" s="3">
         <v>5622000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>5094800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4895500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>5146100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>7318600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>7345200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>7337300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7158500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7018400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7141200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7045700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>6726000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>6465700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>5885200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>5678700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>5419000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>5238600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>5117700</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>741700</v>
+      </c>
+      <c r="E81" s="3">
         <v>521500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>490100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-96700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-4000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>146100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>232500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>368300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>247500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>104300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>231900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>335000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>244600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>565300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>199400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>264700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>143400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>61300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>213500</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,67 +4819,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>477400</v>
+      </c>
+      <c r="E83" s="3">
         <v>482600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>488100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>659700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>578500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>548700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>488800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>478200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>472900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>457100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>435500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>383000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>392800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>389900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>370400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>326200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>317200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>306700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>276400</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2061100</v>
+      </c>
+      <c r="E89" s="3">
         <v>760500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2059800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-203000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1395100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1317800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1353100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1386100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1476300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1159200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1573400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1627900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1884400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>231000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1494600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>751800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1464000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1797000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1360100</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,67 +5277,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-5200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-7400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-7500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-7900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-5600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-4100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3231400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-975900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1302500</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>1398400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-561800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2353500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-310000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1542400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2825300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2083800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2456400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1907000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2294500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3347500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3245700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1528100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-517600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-337800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1187600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1165300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1241100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1308500</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,53 +5549,54 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-134700</v>
       </c>
       <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
         <v>-67400</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-70600</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-74600</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-74700</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-76100</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-70400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-70300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-71900</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-72300</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-18100</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-18000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-10800</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
         <v>0</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,67 +5795,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2750200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-241400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>433100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>257600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>474800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1384500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>642500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>951800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>671100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1174200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1441400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>598600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>125500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>551500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1070600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>169900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>162500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-471500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-53800</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5670,63 +5919,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>709400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-42600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>139500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-255300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>327500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-123000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-88300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-118500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>240400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>38900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-233500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1069300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>432700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>130500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>55900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-268900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>450100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>84300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-2200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>SC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,295 @@
     <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2151500</v>
+        <v>1782100</v>
       </c>
       <c r="E8" s="3">
+        <v>1905000</v>
+      </c>
+      <c r="F8" s="3">
         <v>2041400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2056500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1930400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2080200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1941000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2020500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1979200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1964500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1844000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1843400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1779800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1705000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1668900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1708300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1691100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1686700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1579200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1665200</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>677300</v>
+        <v>301500</v>
       </c>
       <c r="E9" s="3">
+        <v>430900</v>
+      </c>
+      <c r="F9" s="3">
         <v>721200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>759300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>919800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>881700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>849600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>791400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>774500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>778400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>738900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>674700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>634300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>599700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>607100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>590300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>531600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>517300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>495200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>459900</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1474200</v>
+        <v>1480600</v>
       </c>
       <c r="E10" s="3">
+        <v>1474100</v>
+      </c>
+      <c r="F10" s="3">
         <v>1320200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1297200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1010600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1198500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1091400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1229100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1204700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1186100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1105100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1168700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1145500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1105300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1061800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1118000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1159500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1169400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1084000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1205300</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1149,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1175400</v>
+        <v>391500</v>
       </c>
       <c r="E17" s="3">
+        <v>928900</v>
+      </c>
+      <c r="F17" s="3">
         <v>1358200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1393900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2059900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2086600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1718800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1705800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1499200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1627200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1700400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1546600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1330600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1402300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1712200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1430600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1343000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1465300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1489000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1361200</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1390600</v>
+      </c>
+      <c r="E18" s="3">
         <v>976100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>683200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>662600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-129500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-6400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>222200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>314700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>480000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>337300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>143600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>296800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>449200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>302700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-43300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>277800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>348100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>221400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>90200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>304000</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1442,70 +1476,76 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1755200</v>
+      </c>
+      <c r="E21" s="3">
         <v>1453500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1165900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1150700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>530200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>572100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>771000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>803500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>958200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>810200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>600700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>732400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>832100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>695500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>346600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>648100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>674300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>538600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>396900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>580500</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1566,132 +1606,141 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1390600</v>
+      </c>
+      <c r="E23" s="3">
         <v>976100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>683200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>662600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-129500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-6400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>222300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>314700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>480000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>337300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>143600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>296800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>449100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>302700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-43300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>277800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>348100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>221400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>90200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>304000</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>332400</v>
+      </c>
+      <c r="E24" s="3">
         <v>234500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>161800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>172500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-32900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-2500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>76200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>82200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>111800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>89800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>39300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>64900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>114100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>58100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>43700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>78400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>83400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>78000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>28900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>90500</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1058200</v>
+      </c>
+      <c r="E26" s="3">
         <v>741700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>521500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>490100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-96700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-4000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>146100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>232500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>368300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>247500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>104300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>231900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>335000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>244600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-87000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>199400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>264700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>143400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>61300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>213500</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1058200</v>
+      </c>
+      <c r="E27" s="3">
         <v>741700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>521500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>490100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-96700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-4000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>146100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>232500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>368300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>247500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>104300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>231900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>335000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>244600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-87000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>199400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>264700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>143400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>61300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>213500</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1964,8 +2025,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -1982,11 +2043,11 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3">
         <v>652400</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2186,70 +2256,76 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1058200</v>
+      </c>
+      <c r="E33" s="3">
         <v>741700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>521500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>490100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-96700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-4000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>146100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>232500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>368300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>247500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>104300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>231900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>335000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>244600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>565300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>199400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>264700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>143400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>61300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>213500</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1058200</v>
+      </c>
+      <c r="E35" s="3">
         <v>741700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>521500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>490100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-96700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-4000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>146100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>232500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>368300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>247500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>104300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>231900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>335000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>244600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>565300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>199400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>264700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>143400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>61300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>213500</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,70 +2573,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>322000</v>
+      </c>
+      <c r="E41" s="3">
         <v>416000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>109100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>105600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>175900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>501600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>81800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>38600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>99800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>76300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>148400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>81400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>319700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>618800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>527800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>397300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>341400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>420800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>160200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>75900</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,70 +2701,76 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>386600</v>
+      </c>
+      <c r="E43" s="3">
         <v>389500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>473800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>467000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>537100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>363000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>319500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>298300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>297400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>278700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>312600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>314400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>321600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>322700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>340600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>330600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>330700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>306700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>373300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>369500</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,28 +2831,31 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>44900</v>
+      </c>
+      <c r="E45" s="3">
         <v>54300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>45700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>44500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>49100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>53200</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>8</v>
@@ -2773,8 +2872,8 @@
       <c r="N45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
+      <c r="O45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
@@ -2797,8 +2896,11 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2859,194 +2961,206 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>27747100</v>
+      </c>
+      <c r="E47" s="3">
         <v>26205400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>28705800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>28352600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>27310000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>26396400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>28857100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>27512900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>27175900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>26655900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>26284000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>25872700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>25444500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>24298600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>24733500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>24582800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>25878900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>25424000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>25724100</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>26406500</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>16225000</v>
+      </c>
+      <c r="E48" s="3">
         <v>16586800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>16499600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>16304900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>16353600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>16861900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>16579400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>16154200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>15435800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>14515300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>14040100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>13246600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>11794100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>10678800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>10229900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>10003800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>9357200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>8995500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>8632100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>8529500</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>153200</v>
+      </c>
+      <c r="E49" s="3">
         <v>147900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>144200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>136400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>127200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>121900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>116800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>110700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>108200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>115300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>109300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>106200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>105700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>105100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>103800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>105600</v>
-      </c>
-      <c r="S49" s="3">
-        <v>106300</v>
       </c>
       <c r="T49" s="3">
         <v>106300</v>
       </c>
       <c r="U49" s="3">
+        <v>106300</v>
+      </c>
+      <c r="V49" s="3">
         <v>106700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>107100</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,70 +3286,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2660700</v>
+      </c>
+      <c r="E52" s="3">
         <v>2623600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2221100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2267200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2057300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1987000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2079200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2245500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2272600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2414700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2102000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2130100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2125400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2895600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2553900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2559200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2756900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2946700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>2757300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>2696500</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>48245900</v>
+      </c>
+      <c r="E54" s="3">
         <v>47234000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>48887500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>48448900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>47268700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>47106900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>48933500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>47279000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>46416100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>45045900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>43959900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>42807000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>41173100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>40045200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>39402800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>38765600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>39507500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>39061900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>38539100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>38771600</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,70 +3533,74 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>682500</v>
+      </c>
+      <c r="E57" s="3">
         <v>567500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>531400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>524800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>508300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>458400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>499300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>392100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>431000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>399800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>423000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>453800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>470400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>430400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>429500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>336400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>335800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>414900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>379000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>354900</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3527,70 +3661,76 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>64500</v>
+      </c>
+      <c r="E59" s="3">
         <v>68200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>64900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>68500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>72200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>75700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>167600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>189900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>224100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>213400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>112600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>114400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>198100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>141400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>120900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>105100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>93200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>128100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>84000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>97700</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3651,132 +3791,141 @@
       <c r="V60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>38202600</v>
+      </c>
+      <c r="E61" s="3">
         <v>38541600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>41138700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>41369300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>40636800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>40216900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>39194100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>37632600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>36765500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>35647200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>34883000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>33502900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>31929600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>31305200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>31160400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>30594100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>31648500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>31475300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>31323700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>31799900</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1718500</v>
+      </c>
+      <c r="E62" s="3">
         <v>1497800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1263800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1095200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>910400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>940100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1468200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1403600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1327300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1230500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1155900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1138100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1079600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>966400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>892400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1515900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1419800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1342100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1278100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1227200</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>41016300</v>
+      </c>
+      <c r="E66" s="3">
         <v>41002100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>43265500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>43354100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>42373200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>41960800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>41614900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>39933800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>39078800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>37887400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>36941500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>35665700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>34127400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>33319200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>32937100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>32880300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>33828700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>33642900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>33300500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>33654000</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>6873500</v>
+      </c>
+      <c r="E72" s="3">
         <v>5882700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>5275700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>4754200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>4331500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>4499200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>6168700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>6097300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>5940900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>5643000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>5465700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>5433300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>5285800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>4969200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>4736300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>4181800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>3982400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>3717700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>3549200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>3487900</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>7229600</v>
+      </c>
+      <c r="E76" s="3">
         <v>6231900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>5622000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>5094800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4895500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>5146100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>7318600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>7345200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7337300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7158500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7018400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7141200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7045700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>6726000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>6465700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>5885200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>5678700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>5419000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>5238600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>5117700</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1058200</v>
+      </c>
+      <c r="E81" s="3">
         <v>741700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>521500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>490100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-96700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-4000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>146100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>232500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>368300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>247500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>104300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>231900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>335000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>244600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>565300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>199400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>264700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>143400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>61300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>213500</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,70 +5018,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>364600</v>
+      </c>
+      <c r="E83" s="3">
         <v>477400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>482600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>488100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>659700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>578500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>548700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>488800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>478200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>472900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>457100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>435500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>383000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>392800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>389900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>370400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>326200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>317200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>306700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>276400</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1755900</v>
+      </c>
+      <c r="E89" s="3">
         <v>2061100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>760500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2059800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-203000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1395100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1317800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1353100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1386100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1476300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1159200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1573400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1627900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1884400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>231000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1494600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>751800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1464000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1797000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1360100</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,70 +5498,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-5200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-7400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-7500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-7900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-5600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-3500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-4100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-3231400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-975900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1302500</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1394800</v>
+      </c>
+      <c r="E94" s="3">
         <v>1398400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-561800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2353500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-310000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1542400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2825300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2083800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2456400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1907000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2294500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3347500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3245700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1528100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-517600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-337800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1187600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1165300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1241100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1308500</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,56 +5783,57 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-67300</v>
+      </c>
+      <c r="E96" s="3">
         <v>-134700</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
       <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
         <v>-67400</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-70600</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-74600</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-74700</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-76100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-70400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-70300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-71900</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-72300</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-18100</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-18000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-10800</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
         <v>0</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,70 +6041,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-418000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2750200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-241400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>433100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>257600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>474800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1384500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>642500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>951800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>671100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1174200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1441400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>598600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>125500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>551500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1070600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>169900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>162500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-471500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-53800</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,66 +6171,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-56900</v>
+      </c>
+      <c r="E102" s="3">
         <v>709400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-42600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>139500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-255300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>327500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-123000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-88300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-118500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>240400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>38900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-233500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1069300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>432700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>130500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>55900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-268900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>450100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>84300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-2200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>SC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,308 @@
     <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1751100</v>
+      </c>
+      <c r="E8" s="3">
         <v>1782100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1905000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2041400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2056500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1930400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2080200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1941000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2020500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1979200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1964500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1844000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1843400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1779800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1705000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1668900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1708300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1691100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1686700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1579200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1665200</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>333900</v>
+      </c>
+      <c r="E9" s="3">
         <v>301500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>430900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>721200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>759300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>919800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>881700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>849600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>791400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>774500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>778400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>738900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>674700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>634300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>599700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>607100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>590300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>531600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>517300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>495200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>459900</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1417200</v>
+      </c>
+      <c r="E10" s="3">
         <v>1480600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1474100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1320200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1297200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1010600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1198500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1091400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1229100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1204700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1186100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1105100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1168700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1145500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1105300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1061800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1118000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1159500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1169400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1084000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1205300</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>779200</v>
+      </c>
+      <c r="E17" s="3">
         <v>391500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>928900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1358200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1393900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2059900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2086600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1718800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1705800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1499200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1627200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1700400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1546600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1330600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1402300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1712200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1430600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1343000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1465300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1489000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1361200</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>971900</v>
+      </c>
+      <c r="E18" s="3">
         <v>1390600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>976100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>683200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>662600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-129500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-6400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>222200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>314700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>480000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>337300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>143600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>296800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>449200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>302700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-43300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>277800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>348100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>221400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>90200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>304000</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1447,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1479,73 +1513,79 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1392300</v>
+      </c>
+      <c r="E21" s="3">
         <v>1755200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1453500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1165900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1150700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>530200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>572100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>771000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>803500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>958200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>810200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>600700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>732400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>832100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>695500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>346600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>648100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>674300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>538600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>396900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>580500</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1609,138 +1649,147 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>971900</v>
+      </c>
+      <c r="E23" s="3">
         <v>1390600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>976100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>683200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>662600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-129500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-6400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>222300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>314700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>480000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>337300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>143600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>296800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>449100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>302700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-43300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>277800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>348100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>221400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>90200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>304000</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>208600</v>
+      </c>
+      <c r="E24" s="3">
         <v>332400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>234500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>161800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>172500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-32900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-2500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>76200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>82200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>111800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>89800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>39300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>64900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>114100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>58100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>43700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>78400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>83400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>78000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>28900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>90500</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>763300</v>
+      </c>
+      <c r="E26" s="3">
         <v>1058200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>741700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>521500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>490100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-96700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-4000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>146100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>232500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>368300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>247500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>104300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>231900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>335000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>244600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-87000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>199400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>264700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>143400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>61300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>213500</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>763300</v>
+      </c>
+      <c r="E27" s="3">
         <v>1058200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>741700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>521500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>490100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-96700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-4000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>146100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>232500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>368300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>247500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>104300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>231900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>335000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>244600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-87000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>199400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>264700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>143400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>61300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>213500</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2028,8 +2089,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -2046,11 +2107,11 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3">
         <v>652400</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2261,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2259,73 +2329,79 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>763300</v>
+      </c>
+      <c r="E33" s="3">
         <v>1058200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>741700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>521500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>490100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-96700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-4000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>146100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>232500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>368300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>247500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>104300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>231900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>335000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>244600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>565300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>199400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>264700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>143400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>61300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>213500</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>763300</v>
+      </c>
+      <c r="E35" s="3">
         <v>1058200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>741700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>521500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>490100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-96700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-4000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>146100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>232500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>368300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>247500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>104300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>231900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>335000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>244600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>565300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>199400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>264700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>143400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>61300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>213500</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,73 +2660,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2106400</v>
+      </c>
+      <c r="E41" s="3">
         <v>322000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>416000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>109100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>105600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>175900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>501600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>81800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>38600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>99800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>76300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>148400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>81400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>319700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>618800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>527800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>397300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>341400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>420800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>160200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>75900</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,73 +2794,79 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>352800</v>
+      </c>
+      <c r="E43" s="3">
         <v>386600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>389500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>473800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>467000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>537100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>363000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>319500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>298300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>297400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>278700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>312600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>314400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>321600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>322700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>340600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>330600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>330700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>306700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>373300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>369500</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,31 +2930,34 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>35200</v>
+      </c>
+      <c r="E45" s="3">
         <v>44900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>54300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>45700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>44500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>49100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>53200</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>8</v>
@@ -2875,8 +2974,8 @@
       <c r="O45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
+      <c r="P45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
@@ -2899,8 +2998,11 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2964,203 +3066,215 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>27948200</v>
+      </c>
+      <c r="E47" s="3">
         <v>27747100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>26205400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>28705800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>28352600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>27310000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>26396400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>28857100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>27512900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>27175900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>26655900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>26284000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>25872700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>25444500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>24298600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>24733500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>24582800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>25878900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>25424000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>25724100</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>26406500</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>15653400</v>
+      </c>
+      <c r="E48" s="3">
         <v>16225000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>16586800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>16499600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>16304900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>16353600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>16861900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>16579400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>16154200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>15435800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>14515300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>14040100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>13246600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>11794100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>10678800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>10229900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>10003800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>9357200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>8995500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>8632100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>8529500</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>149200</v>
+      </c>
+      <c r="E49" s="3">
         <v>153200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>147900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>144200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>136400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>127200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>121900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>116800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>110700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>108200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>115300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>109300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>106200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>105700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>105100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>103800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>105600</v>
-      </c>
-      <c r="T49" s="3">
-        <v>106300</v>
       </c>
       <c r="U49" s="3">
         <v>106300</v>
       </c>
       <c r="V49" s="3">
+        <v>106300</v>
+      </c>
+      <c r="W49" s="3">
         <v>106700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>107100</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,73 +3406,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2248700</v>
+      </c>
+      <c r="E52" s="3">
         <v>2660700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2623600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2221100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2267200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2057300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1987000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2079200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2245500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2272600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2414700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2102000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2130100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2125400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2895600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2553900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2559200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2756900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>2946700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>2757300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>2696500</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>49074500</v>
+      </c>
+      <c r="E54" s="3">
         <v>48245900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>47234000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>48887500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>48448900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>47268700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>47106900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>48933500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>47279000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>46416100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>45045900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>43959900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>42807000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>41173100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>40045200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>39402800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>38765600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>39507500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>39061900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>38539100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>38771600</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,73 +3664,77 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>554600</v>
+      </c>
+      <c r="E57" s="3">
         <v>682500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>567500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>531400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>524800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>508300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>458400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>499300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>392100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>431000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>399800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>423000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>453800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>470400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>430400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>429500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>336400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>335800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>414900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>379000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>354900</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3664,73 +3798,79 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>77900</v>
+      </c>
+      <c r="E59" s="3">
         <v>64500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>68200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>64900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>68500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>72200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>75700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>167600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>189900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>224100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>213400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>112600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>114400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>198100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>141400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>120900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>105100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>93200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>128100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>84000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>97700</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3794,138 +3934,147 @@
       <c r="W60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>38431900</v>
+      </c>
+      <c r="E61" s="3">
         <v>38202600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>38541600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>41138700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>41369300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>40636800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>40216900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>39194100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>37632600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>36765500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>35647200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>34883000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>33502900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>31929600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>31305200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>31160400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>30594100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>31648500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>31475300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>31323700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>31799900</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1855900</v>
+      </c>
+      <c r="E62" s="3">
         <v>1718500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1497800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1263800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1095200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>910400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>940100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1468200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1403600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1327300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1230500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1155900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1138100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1079600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>966400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>892400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1515900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1419800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1342100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1278100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1227200</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>41141700</v>
+      </c>
+      <c r="E66" s="3">
         <v>41016300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>41002100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>43265500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>43354100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>42373200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>41960800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>41614900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>39933800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>39078800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>37887400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>36941500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>35665700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>34127400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>33319200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>32937100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>32880300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>33828700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>33642900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>33300500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>33654000</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>7569500</v>
+      </c>
+      <c r="E72" s="3">
         <v>6873500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>5882700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>5275700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>4754200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>4331500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>4499200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>6168700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6097300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>5940900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>5643000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>5465700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>5433300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>5285800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>4969200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>4736300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>4181800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>3982400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>3717700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>3549200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>3487900</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>7932700</v>
+      </c>
+      <c r="E76" s="3">
         <v>7229600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>6231900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>5622000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>5094800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4895500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>5146100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>7318600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7345200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7337300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7158500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7018400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7141200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>7045700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>6726000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>6465700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>5885200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>5678700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>5419000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>5238600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>5117700</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>763300</v>
+      </c>
+      <c r="E81" s="3">
         <v>1058200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>741700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>521500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>490100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-96700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-4000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>146100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>232500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>368300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>247500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>104300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>231900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>335000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>244600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>565300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>199400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>264700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>143400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>61300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>213500</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,73 +5217,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>420400</v>
+      </c>
+      <c r="E83" s="3">
         <v>364600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>477400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>482600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>488100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>659700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>578500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>548700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>488800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>478200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>472900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>457100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>435500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>383000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>392800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>389900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>370400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>326200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>317200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>306700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>276400</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1314500</v>
+      </c>
+      <c r="E89" s="3">
         <v>1755900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2061100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>760500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2059800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-203000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1395100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1317800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1353100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1386100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1476300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1159200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1573400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1627900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1884400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>231000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1494600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>751800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1464000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1797000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1360100</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,73 +5719,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-5300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-5200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-7400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-7500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-7900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-5600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-4100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-3231400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-975900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-1302500</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-93100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1394800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>1398400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-561800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2353500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-310000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1542400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2825300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2083800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2456400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1907000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2294500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3347500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3245700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1528100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-517600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-337800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1187600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1165300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1241100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1308500</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5793,50 +6027,50 @@
         <v>-67300</v>
       </c>
       <c r="E96" s="3">
+        <v>-67300</v>
+      </c>
+      <c r="F96" s="3">
         <v>-134700</v>
       </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
       <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
         <v>-67400</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-70600</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-74600</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-74700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-76100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-70400</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-70300</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-71900</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-72300</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-18100</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-18000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-10800</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
         <v>0</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,73 +6287,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>151000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-418000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2750200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-241400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>433100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>257600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>474800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1384500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>642500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>951800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>671100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1174200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1441400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>598600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>125500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>551500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1070600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>169900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>162500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-471500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-53800</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,69 +6423,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1372400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-56900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>709400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-42600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>139500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-255300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>327500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-123000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-88300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-118500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>240400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>38900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-233500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1069300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>432700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>130500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>55900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-268900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>450100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>84300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-2200</v>
       </c>
     </row>
